--- a/attendance-files/SAR/SAR Attendance.xlsx
+++ b/attendance-files/SAR/SAR Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="150">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -943,9 +943,6 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -954,6 +951,9 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F7" s="37">
         <f t="shared" ref="F7:F62" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>38</v>
@@ -1570,10 +1570,18 @@
       <c r="V7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
+      <c r="W7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA7" s="20"/>
     </row>
     <row r="8">
@@ -1593,7 +1601,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>39</v>
@@ -1643,10 +1651,18 @@
       <c r="V8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
+      <c r="W8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA8" s="20"/>
     </row>
     <row r="9">
@@ -1662,11 +1678,11 @@
       <c r="D9" s="40"/>
       <c r="E9" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>39</v>
@@ -1716,10 +1732,18 @@
       <c r="V9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
+      <c r="W9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA9" s="20"/>
     </row>
     <row r="10">
@@ -1739,7 +1763,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" s="42" t="s">
         <v>39</v>
@@ -1789,10 +1813,18 @@
       <c r="V10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
+      <c r="W10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA10" s="20"/>
     </row>
     <row r="11">
@@ -1812,7 +1844,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>38</v>
@@ -1862,10 +1894,18 @@
       <c r="V11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
+      <c r="W11" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA11" s="20"/>
     </row>
     <row r="12">
@@ -1885,7 +1925,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>39</v>
@@ -1935,10 +1975,18 @@
       <c r="V12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
+      <c r="W12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA12" s="20"/>
     </row>
     <row r="13">
@@ -1954,11 +2002,11 @@
       <c r="D13" s="40"/>
       <c r="E13" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>39</v>
@@ -2008,10 +2056,18 @@
       <c r="V13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
+      <c r="W13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA13" s="20"/>
     </row>
     <row r="14">
@@ -2027,11 +2083,11 @@
       <c r="D14" s="40"/>
       <c r="E14" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>39</v>
@@ -2081,10 +2137,18 @@
       <c r="V14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
+      <c r="W14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA14" s="20"/>
     </row>
     <row r="15">
@@ -2104,7 +2168,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>39</v>
@@ -2154,10 +2218,18 @@
       <c r="V15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
+      <c r="W15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA15" s="20"/>
     </row>
     <row r="16">
@@ -2177,7 +2249,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>39</v>
@@ -2227,10 +2299,18 @@
       <c r="V16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
+      <c r="W16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA16" s="20"/>
     </row>
     <row r="17">
@@ -2250,7 +2330,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>39</v>
@@ -2300,10 +2380,18 @@
       <c r="V17" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
+      <c r="W17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA17" s="20"/>
     </row>
     <row r="18">
@@ -2323,7 +2411,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>39</v>
@@ -2373,10 +2461,18 @@
       <c r="V18" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
+      <c r="W18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA18" s="20"/>
     </row>
     <row r="19">
@@ -2396,7 +2492,7 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>39</v>
@@ -2446,10 +2542,18 @@
       <c r="V19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
+      <c r="W19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA19" s="20"/>
     </row>
     <row r="20">
@@ -2469,7 +2573,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>39</v>
@@ -2519,10 +2623,18 @@
       <c r="V20" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
+      <c r="W20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2542,7 +2654,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G21" s="42" t="s">
         <v>39</v>
@@ -2592,10 +2704,18 @@
       <c r="V21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
+      <c r="W21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2615,7 +2735,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>39</v>
@@ -2665,10 +2785,18 @@
       <c r="V22" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
+      <c r="W22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2688,7 +2816,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>39</v>
@@ -2738,10 +2866,18 @@
       <c r="V23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
+      <c r="W23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2761,7 +2897,7 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>39</v>
@@ -2811,10 +2947,18 @@
       <c r="V24" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
+      <c r="W24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2834,7 +2978,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G25" s="42" t="s">
         <v>39</v>
@@ -2884,10 +3028,18 @@
       <c r="V25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
+      <c r="W25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2907,7 +3059,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G26" s="42" t="s">
         <v>39</v>
@@ -2957,10 +3109,18 @@
       <c r="V26" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
+      <c r="W26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA26" s="20"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2980,7 +3140,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>38</v>
@@ -3030,10 +3190,18 @@
       <c r="V27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
+      <c r="W27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA27" s="20"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3053,7 +3221,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>39</v>
@@ -3103,10 +3271,18 @@
       <c r="V28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
+      <c r="W28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA28" s="20"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3122,11 +3298,11 @@
       <c r="D29" s="40"/>
       <c r="E29" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G29" s="42" t="s">
         <v>39</v>
@@ -3176,10 +3352,18 @@
       <c r="V29" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
+      <c r="W29" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA29" s="20"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3199,7 +3383,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" s="42" t="s">
         <v>39</v>
@@ -3249,10 +3433,18 @@
       <c r="V30" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
+      <c r="W30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3268,11 +3460,11 @@
       <c r="D31" s="40"/>
       <c r="E31" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G31" s="42" t="s">
         <v>39</v>
@@ -3322,10 +3514,18 @@
       <c r="V31" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
+      <c r="W31" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA31" s="20"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3345,7 +3545,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G32" s="42" t="s">
         <v>38</v>
@@ -3395,10 +3595,18 @@
       <c r="V32" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
+      <c r="W32" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA32" s="20"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3418,7 +3626,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G33" s="42" t="s">
         <v>39</v>
@@ -3468,10 +3676,18 @@
       <c r="V33" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
+      <c r="W33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA33" s="20"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3491,7 +3707,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G34" s="42" t="s">
         <v>39</v>
@@ -3541,10 +3757,18 @@
       <c r="V34" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
+      <c r="W34" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA34" s="20"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3560,11 +3784,11 @@
       <c r="D35" s="40"/>
       <c r="E35" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>39</v>
@@ -3614,10 +3838,18 @@
       <c r="V35" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
+      <c r="W35" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X35" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA35" s="20"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3637,7 +3869,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G36" s="42" t="s">
         <v>39</v>
@@ -3687,10 +3919,18 @@
       <c r="V36" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
+      <c r="W36" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X36" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y36" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA36" s="20"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3710,7 +3950,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>39</v>
@@ -3760,10 +4000,18 @@
       <c r="V37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
+      <c r="W37" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X37" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y37" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA37" s="20"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3779,11 +4027,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G38" s="42" t="s">
         <v>39</v>
@@ -3833,10 +4081,18 @@
       <c r="V38" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
+      <c r="W38" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z38" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA38" s="20"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3856,7 +4112,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>39</v>
@@ -3906,10 +4162,18 @@
       <c r="V39" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
+      <c r="W39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z39" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA39" s="20"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3929,7 +4193,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G40" s="42" t="s">
         <v>38</v>
@@ -3979,10 +4243,18 @@
       <c r="V40" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
+      <c r="W40" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X40" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y40" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z40" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA40" s="20"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4002,7 +4274,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G41" s="42" t="s">
         <v>39</v>
@@ -4052,10 +4324,18 @@
       <c r="V41" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
+      <c r="W41" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X41" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y41" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z41" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA41" s="20"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4071,11 +4351,11 @@
       <c r="D42" s="40"/>
       <c r="E42" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42" s="42" t="s">
         <v>39</v>
@@ -4125,10 +4405,18 @@
       <c r="V42" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
+      <c r="W42" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y42" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z42" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA42" s="20"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4148,7 +4436,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G43" s="42" t="s">
         <v>39</v>
@@ -4198,10 +4486,18 @@
       <c r="V43" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
+      <c r="W43" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X43" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y43" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z43" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA43" s="20"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4217,11 +4513,11 @@
       <c r="D44" s="40"/>
       <c r="E44" s="37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>39</v>
@@ -4271,10 +4567,18 @@
       <c r="V44" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
+      <c r="W44" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y44" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z44" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA44" s="20"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4294,7 +4598,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G45" s="42" t="s">
         <v>39</v>
@@ -4344,10 +4648,18 @@
       <c r="V45" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
+      <c r="W45" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z45" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA45" s="20"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4367,7 +4679,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G46" s="42" t="s">
         <v>39</v>
@@ -4417,10 +4729,18 @@
       <c r="V46" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
+      <c r="W46" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y46" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA46" s="20"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4440,7 +4760,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G47" s="42" t="s">
         <v>38</v>
@@ -4490,10 +4810,18 @@
       <c r="V47" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
+      <c r="W47" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y47" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z47" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA47" s="20"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4509,11 +4837,11 @@
       <c r="D48" s="40"/>
       <c r="E48" s="37">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="42" t="s">
         <v>39</v>
@@ -4563,10 +4891,18 @@
       <c r="V48" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
+      <c r="W48" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X48" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y48" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z48" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA48" s="20"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -4586,7 +4922,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G49" s="42" t="s">
         <v>39</v>
@@ -4636,10 +4972,18 @@
       <c r="V49" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
+      <c r="W49" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y49" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA49" s="20"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -4659,7 +5003,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G50" s="42" t="s">
         <v>38</v>
@@ -4709,10 +5053,18 @@
       <c r="V50" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
+      <c r="W50" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X50" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y50" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z50" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA50" s="20"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4728,11 +5080,11 @@
       <c r="D51" s="40"/>
       <c r="E51" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G51" s="42" t="s">
         <v>39</v>
@@ -4782,10 +5134,18 @@
       <c r="V51" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
+      <c r="W51" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X51" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y51" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z51" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA51" s="20"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -4805,7 +5165,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G52" s="42" t="s">
         <v>39</v>
@@ -4855,10 +5215,18 @@
       <c r="V52" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W52" s="44"/>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44"/>
+      <c r="W52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z52" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA52" s="20"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -4874,11 +5242,11 @@
       <c r="D53" s="40"/>
       <c r="E53" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G53" s="42" t="s">
         <v>39</v>
@@ -4928,10 +5296,18 @@
       <c r="V53" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
+      <c r="W53" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="X53" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y53" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z53" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA53" s="20"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -4951,7 +5327,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G54" s="42" t="s">
         <v>39</v>
@@ -5001,10 +5377,18 @@
       <c r="V54" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
+      <c r="W54" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X54" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y54" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z54" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA54" s="20"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5020,11 +5404,11 @@
       <c r="D55" s="40"/>
       <c r="E55" s="37">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G55" s="42" t="s">
         <v>39</v>
@@ -5063,7 +5447,7 @@
         <v>39</v>
       </c>
       <c r="S55" s="43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T55" s="43" t="s">
         <v>39</v>
@@ -5074,10 +5458,18 @@
       <c r="V55" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="44"/>
+      <c r="W55" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y55" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z55" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA55" s="20"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5097,7 +5489,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G56" s="42" t="s">
         <v>39</v>
@@ -5147,10 +5539,18 @@
       <c r="V56" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W56" s="44"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
+      <c r="W56" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y56" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z56" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA56" s="20"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5170,7 +5570,7 @@
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>38</v>
@@ -5220,10 +5620,18 @@
       <c r="V57" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
+      <c r="W57" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X57" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y57" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z57" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA57" s="20"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5243,7 +5651,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G58" s="42" t="s">
         <v>39</v>
@@ -5293,10 +5701,18 @@
       <c r="V58" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44"/>
+      <c r="W58" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X58" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y58" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z58" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA58" s="20"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5316,7 +5732,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G59" s="42" t="s">
         <v>39</v>
@@ -5366,10 +5782,18 @@
       <c r="V59" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W59" s="44"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
+      <c r="W59" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X59" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y59" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z59" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA59" s="20"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5389,7 +5813,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G60" s="42" t="s">
         <v>38</v>
@@ -5439,10 +5863,18 @@
       <c r="V60" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
+      <c r="W60" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X60" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y60" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z60" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA60" s="20"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -5462,7 +5894,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G61" s="42" t="s">
         <v>38</v>
@@ -5512,10 +5944,18 @@
       <c r="V61" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="44"/>
+      <c r="W61" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X61" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y61" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z61" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA61" s="20"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -5535,7 +5975,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>39</v>
@@ -5585,18 +6025,26 @@
       <c r="V62" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44"/>
+      <c r="W62" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="X62" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y62" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z62" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="AA62" s="20"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="37">
         <v>57.0</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="40"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
@@ -5606,90 +6054,90 @@
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
       <c r="L63" s="37"/>
-      <c r="M63" s="47"/>
+      <c r="M63" s="46"/>
       <c r="N63" s="37"/>
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="47"/>
+      <c r="Z63" s="47"/>
       <c r="AA63" s="20"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="37">
         <v>58.0</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="40"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="42"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
-      <c r="J64" s="47"/>
+      <c r="J64" s="46"/>
       <c r="K64" s="37"/>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="44"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
       <c r="AA64" s="20"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="37">
         <v>59.0</v>
       </c>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="40"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="42"/>
       <c r="H65" s="37"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
       <c r="AA65" s="20"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="37">
         <v>60.0</v>
       </c>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="40"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
@@ -5698,29 +6146,29 @@
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
-      <c r="L66" s="47"/>
+      <c r="L66" s="46"/>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="44"/>
-      <c r="Z66" s="44"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
       <c r="AA66" s="20"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="37">
         <v>61.0</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="40"/>
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
@@ -5734,24 +6182,24 @@
       <c r="N67" s="37"/>
       <c r="O67" s="37"/>
       <c r="P67" s="37"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="44"/>
-      <c r="Z67" s="44"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47"/>
       <c r="AA67" s="20"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="37">
         <v>62.0</v>
       </c>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="40"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
@@ -5765,24 +6213,24 @@
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="44"/>
-      <c r="X68" s="44"/>
-      <c r="Y68" s="44"/>
-      <c r="Z68" s="44"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
       <c r="AA68" s="20"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="37">
         <v>63.0</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="40"/>
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
@@ -5792,34 +6240,34 @@
       <c r="J69" s="37"/>
       <c r="K69" s="37"/>
       <c r="L69" s="37"/>
-      <c r="M69" s="47"/>
+      <c r="M69" s="46"/>
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="44"/>
-      <c r="X69" s="44"/>
-      <c r="Y69" s="44"/>
-      <c r="Z69" s="44"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
       <c r="AA69" s="20"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="37">
         <v>64.0</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="40"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="42"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="47"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
@@ -5827,24 +6275,24 @@
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
-      <c r="Y70" s="44"/>
-      <c r="Z70" s="44"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47"/>
       <c r="AA70" s="20"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="37">
         <v>65.0</v>
       </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="40"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
@@ -5855,27 +6303,27 @@
       <c r="K71" s="37"/>
       <c r="L71" s="37"/>
       <c r="M71" s="37"/>
-      <c r="N71" s="47"/>
+      <c r="N71" s="46"/>
       <c r="O71" s="37"/>
       <c r="P71" s="37"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="47"/>
+      <c r="Z71" s="47"/>
       <c r="AA71" s="20"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="37">
         <v>66.0</v>
       </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="40"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
@@ -5885,59 +6333,59 @@
       <c r="J72" s="37"/>
       <c r="K72" s="37"/>
       <c r="L72" s="37"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="44"/>
-      <c r="X72" s="44"/>
-      <c r="Y72" s="44"/>
-      <c r="Z72" s="44"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
+      <c r="X72" s="47"/>
+      <c r="Y72" s="47"/>
+      <c r="Z72" s="47"/>
       <c r="AA72" s="20"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="37">
         <v>67.0</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="40"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="42"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
-      <c r="J73" s="47"/>
+      <c r="J73" s="46"/>
       <c r="K73" s="37"/>
-      <c r="L73" s="47"/>
+      <c r="L73" s="46"/>
       <c r="M73" s="37"/>
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
-      <c r="Y73" s="44"/>
-      <c r="Z73" s="44"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="47"/>
       <c r="AA73" s="20"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="37">
         <v>68.0</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="46"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="40"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
@@ -5951,24 +6399,24 @@
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="44"/>
-      <c r="U74" s="44"/>
-      <c r="V74" s="44"/>
-      <c r="W74" s="44"/>
-      <c r="X74" s="44"/>
-      <c r="Y74" s="44"/>
-      <c r="Z74" s="44"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="47"/>
+      <c r="Z74" s="47"/>
       <c r="AA74" s="20"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="37">
         <v>69.0</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="40"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
@@ -5976,92 +6424,92 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
-      <c r="K75" s="47"/>
+      <c r="K75" s="46"/>
       <c r="L75" s="37"/>
-      <c r="M75" s="47"/>
+      <c r="M75" s="46"/>
       <c r="N75" s="37"/>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="44"/>
-      <c r="Y75" s="44"/>
-      <c r="Z75" s="44"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
       <c r="AA75" s="20"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="37">
         <v>70.0</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="46"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="40"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="42"/>
-      <c r="H76" s="47"/>
+      <c r="H76" s="46"/>
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
-      <c r="N76" s="47"/>
+      <c r="N76" s="46"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
-      <c r="T76" s="44"/>
-      <c r="U76" s="44"/>
-      <c r="V76" s="44"/>
-      <c r="W76" s="44"/>
-      <c r="X76" s="44"/>
-      <c r="Y76" s="44"/>
-      <c r="Z76" s="44"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
       <c r="AA76" s="20"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="37">
         <v>71.0</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="40"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
       <c r="G77" s="42"/>
       <c r="H77" s="37"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
       <c r="K77" s="37"/>
       <c r="L77" s="37"/>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44"/>
-      <c r="U77" s="44"/>
-      <c r="V77" s="44"/>
-      <c r="W77" s="44"/>
-      <c r="X77" s="44"/>
-      <c r="Y77" s="44"/>
-      <c r="Z77" s="44"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
       <c r="AA77" s="20"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="37">
         <v>72.0</v>
       </c>
-      <c r="B78" s="45"/>
-      <c r="C78" s="46"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="40"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
@@ -6072,32 +6520,32 @@
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
       <c r="M78" s="37"/>
-      <c r="N78" s="47"/>
+      <c r="N78" s="46"/>
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="44"/>
-      <c r="Z78" s="44"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
       <c r="AA78" s="20"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="37">
         <v>73.0</v>
       </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="40"/>
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
       <c r="G79" s="42"/>
-      <c r="H79" s="47"/>
+      <c r="H79" s="46"/>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
       <c r="K79" s="37"/>
@@ -6105,25 +6553,25 @@
       <c r="M79" s="37"/>
       <c r="N79" s="37"/>
       <c r="O79" s="37"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
-      <c r="Y79" s="44"/>
-      <c r="Z79" s="44"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
       <c r="AA79" s="20"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="37">
         <v>74.0</v>
       </c>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="40"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
@@ -6132,34 +6580,34 @@
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
       <c r="N80" s="37"/>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="44"/>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
-      <c r="X80" s="44"/>
-      <c r="Y80" s="44"/>
-      <c r="Z80" s="44"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
       <c r="AA80" s="20"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="37">
         <v>75.0</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="40"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="42"/>
-      <c r="H81" s="47"/>
+      <c r="H81" s="46"/>
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
       <c r="K81" s="37"/>
@@ -6167,87 +6615,87 @@
       <c r="M81" s="37"/>
       <c r="N81" s="37"/>
       <c r="O81" s="37"/>
-      <c r="P81" s="47"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
-      <c r="T81" s="44"/>
-      <c r="U81" s="44"/>
-      <c r="V81" s="44"/>
-      <c r="W81" s="44"/>
-      <c r="X81" s="44"/>
-      <c r="Y81" s="44"/>
-      <c r="Z81" s="44"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
       <c r="AA81" s="20"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="37">
         <v>76.0</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="40"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
       <c r="G82" s="42"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
       <c r="N82" s="37"/>
       <c r="O82" s="37"/>
       <c r="P82" s="37"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="44"/>
-      <c r="T82" s="44"/>
-      <c r="U82" s="44"/>
-      <c r="V82" s="44"/>
-      <c r="W82" s="44"/>
-      <c r="X82" s="44"/>
-      <c r="Y82" s="44"/>
-      <c r="Z82" s="44"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
       <c r="AA82" s="20"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="37">
         <v>77.0</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="40"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
       <c r="G83" s="42"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
-      <c r="J83" s="47"/>
+      <c r="J83" s="46"/>
       <c r="K83" s="37"/>
-      <c r="L83" s="47"/>
+      <c r="L83" s="46"/>
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
       <c r="O83" s="37"/>
       <c r="P83" s="37"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
-      <c r="Y83" s="44"/>
-      <c r="Z83" s="44"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
       <c r="AA83" s="20"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="37">
         <v>78.0</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="40"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
@@ -6256,60 +6704,60 @@
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
       <c r="N84" s="37"/>
       <c r="O84" s="37"/>
       <c r="P84" s="37"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="44"/>
-      <c r="S84" s="44"/>
-      <c r="T84" s="44"/>
-      <c r="U84" s="44"/>
-      <c r="V84" s="44"/>
-      <c r="W84" s="44"/>
-      <c r="X84" s="44"/>
-      <c r="Y84" s="44"/>
-      <c r="Z84" s="44"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="47"/>
       <c r="AA84" s="20"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="37">
         <v>79.0</v>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="40"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="42"/>
       <c r="H85" s="37"/>
-      <c r="I85" s="47"/>
+      <c r="I85" s="46"/>
       <c r="J85" s="37"/>
       <c r="K85" s="37"/>
       <c r="L85" s="37"/>
       <c r="M85" s="37"/>
-      <c r="N85" s="47"/>
+      <c r="N85" s="46"/>
       <c r="O85" s="37"/>
       <c r="P85" s="37"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="44"/>
-      <c r="T85" s="44"/>
-      <c r="U85" s="44"/>
-      <c r="V85" s="44"/>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
-      <c r="Y85" s="44"/>
-      <c r="Z85" s="44"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="47"/>
+      <c r="Z85" s="47"/>
       <c r="AA85" s="20"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="37">
         <v>80.0</v>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="46"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="40"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
@@ -6318,21 +6766,21 @@
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
-      <c r="L86" s="47"/>
+      <c r="L86" s="46"/>
       <c r="M86" s="37"/>
-      <c r="N86" s="47"/>
+      <c r="N86" s="46"/>
       <c r="O86" s="37"/>
       <c r="P86" s="37"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="44"/>
-      <c r="T86" s="44"/>
-      <c r="U86" s="44"/>
-      <c r="V86" s="44"/>
-      <c r="W86" s="44"/>
-      <c r="X86" s="44"/>
-      <c r="Y86" s="44"/>
-      <c r="Z86" s="44"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="47"/>
       <c r="AA86" s="20"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -6354,16 +6802,16 @@
       <c r="N87" s="40"/>
       <c r="O87" s="40"/>
       <c r="P87" s="40"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="47"/>
       <c r="AA87" s="20"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -6385,16 +6833,16 @@
       <c r="N88" s="40"/>
       <c r="O88" s="40"/>
       <c r="P88" s="40"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="44"/>
-      <c r="S88" s="44"/>
-      <c r="T88" s="44"/>
-      <c r="U88" s="44"/>
-      <c r="V88" s="44"/>
-      <c r="W88" s="44"/>
-      <c r="X88" s="44"/>
-      <c r="Y88" s="44"/>
-      <c r="Z88" s="44"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
+      <c r="X88" s="47"/>
+      <c r="Y88" s="47"/>
+      <c r="Z88" s="47"/>
       <c r="AA88" s="20"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -6416,16 +6864,16 @@
       <c r="N89" s="40"/>
       <c r="O89" s="40"/>
       <c r="P89" s="40"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="44"/>
-      <c r="T89" s="44"/>
-      <c r="U89" s="44"/>
-      <c r="V89" s="44"/>
-      <c r="W89" s="44"/>
-      <c r="X89" s="44"/>
-      <c r="Y89" s="44"/>
-      <c r="Z89" s="44"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47"/>
+      <c r="X89" s="47"/>
+      <c r="Y89" s="47"/>
+      <c r="Z89" s="47"/>
       <c r="AA89" s="20"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -6447,16 +6895,16 @@
       <c r="N90" s="40"/>
       <c r="O90" s="40"/>
       <c r="P90" s="40"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="44"/>
-      <c r="T90" s="44"/>
-      <c r="U90" s="44"/>
-      <c r="V90" s="44"/>
-      <c r="W90" s="44"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="44"/>
-      <c r="Z90" s="44"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="47"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="47"/>
+      <c r="X90" s="47"/>
+      <c r="Y90" s="47"/>
+      <c r="Z90" s="47"/>
       <c r="AA90" s="20"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -6478,16 +6926,16 @@
       <c r="N91" s="40"/>
       <c r="O91" s="40"/>
       <c r="P91" s="40"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="44"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
+      <c r="S91" s="47"/>
+      <c r="T91" s="47"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="47"/>
+      <c r="W91" s="47"/>
+      <c r="X91" s="47"/>
+      <c r="Y91" s="47"/>
+      <c r="Z91" s="47"/>
       <c r="AA91" s="20"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -6509,16 +6957,16 @@
       <c r="N92" s="40"/>
       <c r="O92" s="40"/>
       <c r="P92" s="40"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-      <c r="S92" s="44"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="44"/>
-      <c r="V92" s="44"/>
-      <c r="W92" s="44"/>
-      <c r="X92" s="44"/>
-      <c r="Y92" s="44"/>
-      <c r="Z92" s="44"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="47"/>
+      <c r="Z92" s="47"/>
       <c r="AA92" s="20"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
